--- a/src/test/java/com/flex/testData/TestData.xlsx
+++ b/src/test/java/com/flex/testData/TestData.xlsx
@@ -11,15 +11,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:F18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="155">
-  <si>
-    <t>Password</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="127">
   <si>
     <t>Browser</t>
   </si>
@@ -42,12 +38,6 @@
     <t>State</t>
   </si>
   <si>
-    <t>Self</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
     <t>IE</t>
   </si>
   <si>
@@ -66,30 +56,6 @@
     <t>Assignment</t>
   </si>
   <si>
-    <t>Property</t>
-  </si>
-  <si>
-    <t>Ken Darion</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Primary Location-425 Madison St., Chicago, IL 60606, United States</t>
-  </si>
-  <si>
-    <t>Phoenix</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Use automated assignment</t>
-  </si>
-  <si>
-    <t>Explosion</t>
-  </si>
-  <si>
     <t>testHomeOwnersVerifiedPolicy1.2</t>
   </si>
   <si>
@@ -102,33 +68,15 @@
     <t>abcd</t>
   </si>
   <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>Loss</t>
-  </si>
-  <si>
     <t>Municipality</t>
   </si>
   <si>
-    <t>Helsinki</t>
-  </si>
-  <si>
-    <t>test, Helsinki 12121</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
     <t>Loss Cause Description</t>
   </si>
   <si>
-    <t>Forget it somewhere</t>
-  </si>
-  <si>
-    <t>22.09.2016</t>
-  </si>
-  <si>
     <t>Effective_Date</t>
   </si>
   <si>
@@ -150,9 +98,6 @@
     <t>Policy_Number</t>
   </si>
   <si>
-    <t>53-235677</t>
-  </si>
-  <si>
     <t>policySearchandValidation</t>
   </si>
   <si>
@@ -192,18 +137,9 @@
     <t>gw</t>
   </si>
   <si>
-    <t>Siva Dronadula</t>
-  </si>
-  <si>
-    <t>Street1, 12345</t>
-  </si>
-  <si>
     <t>DescNLI</t>
   </si>
   <si>
-    <t>22.11.2016</t>
-  </si>
-  <si>
     <t>peter</t>
   </si>
   <si>
@@ -234,12 +170,6 @@
     <t>NewAvailableReserves</t>
   </si>
   <si>
-    <t>Kevin Peterson</t>
-  </si>
-  <si>
-    <t>Chruch Street, 00380</t>
-  </si>
-  <si>
     <t>CoverabilityDecision</t>
   </si>
   <si>
@@ -441,46 +371,31 @@
     <t>VerifyFaceBookSignup</t>
   </si>
   <si>
-    <t>Lastname</t>
-  </si>
-  <si>
-    <t>Firstname</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
     <t>Gender</t>
   </si>
   <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>subba.yeruva@cgi.com</t>
-  </si>
-  <si>
-    <t>Subba@123</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>Male</t>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>ReturnDate</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Destination</t>
   </si>
   <si>
     <t>TestCaseName</t>
-  </si>
-  <si>
-    <t>Hyderabad</t>
-  </si>
-  <si>
-    <t>Markapuram</t>
   </si>
 </sst>
 </file>
@@ -577,7 +492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -596,8 +511,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -902,512 +815,470 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DL4"/>
+  <dimension ref="A1:DJ4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41.140625" customWidth="1" collapsed="1"/>
     <col min="2" max="4" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="26.42578125" customWidth="1"/>
-    <col min="20" max="20" width="29.140625" customWidth="1"/>
-    <col min="21" max="24" width="21.140625" customWidth="1"/>
-    <col min="25" max="28" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="16.85546875" customWidth="1"/>
-    <col min="30" max="30" width="18.140625" customWidth="1"/>
-    <col min="31" max="31" width="15.85546875" customWidth="1"/>
-    <col min="32" max="32" width="16.5703125" customWidth="1"/>
-    <col min="33" max="33" width="37" customWidth="1"/>
-    <col min="34" max="34" width="19.28515625" customWidth="1"/>
-    <col min="35" max="35" width="18.85546875" customWidth="1"/>
-    <col min="36" max="36" width="31.7109375" customWidth="1"/>
-    <col min="37" max="37" width="17.5703125" customWidth="1"/>
-    <col min="38" max="38" width="17.85546875" customWidth="1"/>
-    <col min="40" max="40" width="17" customWidth="1"/>
-    <col min="41" max="41" width="12.42578125" customWidth="1"/>
-    <col min="42" max="42" width="16.140625" customWidth="1"/>
-    <col min="43" max="43" width="18.5703125" customWidth="1"/>
-    <col min="44" max="44" width="26.28515625" customWidth="1"/>
-    <col min="45" max="45" width="40.42578125" customWidth="1"/>
-    <col min="46" max="46" width="28" customWidth="1"/>
-    <col min="47" max="47" width="27.5703125" customWidth="1"/>
-    <col min="48" max="48" width="25" customWidth="1"/>
-    <col min="49" max="49" width="45.7109375" customWidth="1"/>
-    <col min="50" max="56" width="25" customWidth="1"/>
-    <col min="57" max="57" width="18" customWidth="1"/>
-    <col min="58" max="66" width="14" customWidth="1"/>
-    <col min="67" max="67" width="23.7109375" customWidth="1"/>
-    <col min="68" max="68" width="30.42578125" customWidth="1"/>
-    <col min="69" max="69" width="20.28515625" customWidth="1"/>
-    <col min="70" max="70" width="14" customWidth="1"/>
-    <col min="71" max="71" width="29" customWidth="1"/>
-    <col min="72" max="72" width="24.5703125" customWidth="1"/>
-    <col min="73" max="73" width="31.85546875" customWidth="1"/>
-    <col min="74" max="74" width="25.28515625" customWidth="1"/>
-    <col min="75" max="75" width="28.42578125" customWidth="1"/>
-    <col min="76" max="76" width="26.28515625" customWidth="1"/>
-    <col min="77" max="77" width="20.28515625" customWidth="1"/>
+    <col min="5" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="26.42578125" customWidth="1"/>
+    <col min="18" max="18" width="29.140625" customWidth="1"/>
+    <col min="19" max="22" width="21.140625" customWidth="1"/>
+    <col min="23" max="26" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="16.85546875" customWidth="1"/>
+    <col min="28" max="28" width="18.140625" customWidth="1"/>
+    <col min="29" max="29" width="15.85546875" customWidth="1"/>
+    <col min="30" max="30" width="16.5703125" customWidth="1"/>
+    <col min="31" max="31" width="37" customWidth="1"/>
+    <col min="32" max="32" width="19.28515625" customWidth="1"/>
+    <col min="33" max="33" width="18.85546875" customWidth="1"/>
+    <col min="34" max="34" width="31.7109375" customWidth="1"/>
+    <col min="35" max="35" width="17.5703125" customWidth="1"/>
+    <col min="36" max="36" width="17.85546875" customWidth="1"/>
+    <col min="38" max="38" width="17" customWidth="1"/>
+    <col min="39" max="39" width="12.42578125" customWidth="1"/>
+    <col min="40" max="40" width="16.140625" customWidth="1"/>
+    <col min="41" max="41" width="18.5703125" customWidth="1"/>
+    <col min="42" max="42" width="26.28515625" customWidth="1"/>
+    <col min="43" max="43" width="40.42578125" customWidth="1"/>
+    <col min="44" max="44" width="28" customWidth="1"/>
+    <col min="45" max="45" width="27.5703125" customWidth="1"/>
+    <col min="46" max="46" width="25" customWidth="1"/>
+    <col min="47" max="47" width="45.7109375" customWidth="1"/>
+    <col min="48" max="54" width="25" customWidth="1"/>
+    <col min="55" max="55" width="18" customWidth="1"/>
+    <col min="56" max="64" width="14" customWidth="1"/>
+    <col min="65" max="65" width="23.7109375" customWidth="1"/>
+    <col min="66" max="66" width="30.42578125" customWidth="1"/>
+    <col min="67" max="67" width="20.28515625" customWidth="1"/>
+    <col min="68" max="68" width="14" customWidth="1"/>
+    <col min="69" max="69" width="29" customWidth="1"/>
+    <col min="70" max="70" width="24.5703125" customWidth="1"/>
+    <col min="71" max="71" width="31.85546875" customWidth="1"/>
+    <col min="72" max="72" width="25.28515625" customWidth="1"/>
+    <col min="73" max="73" width="28.42578125" customWidth="1"/>
+    <col min="74" max="74" width="26.28515625" customWidth="1"/>
+    <col min="75" max="75" width="20.28515625" customWidth="1"/>
+    <col min="76" max="76" width="14" customWidth="1"/>
+    <col min="77" max="77" width="18.28515625" customWidth="1"/>
     <col min="78" max="78" width="14" customWidth="1"/>
-    <col min="79" max="79" width="18.28515625" customWidth="1"/>
-    <col min="80" max="80" width="14" customWidth="1"/>
-    <col min="81" max="81" width="29.5703125" customWidth="1"/>
-    <col min="82" max="82" width="47.85546875" customWidth="1"/>
-    <col min="83" max="83" width="18" customWidth="1"/>
-    <col min="84" max="84" width="14.85546875" customWidth="1"/>
-    <col min="85" max="85" width="13.140625" customWidth="1"/>
-    <col min="86" max="86" width="18.140625" customWidth="1"/>
-    <col min="87" max="87" width="15.42578125" customWidth="1"/>
-    <col min="88" max="88" width="15.85546875" customWidth="1"/>
-    <col min="91" max="91" width="17.7109375" customWidth="1"/>
-    <col min="92" max="92" width="22.140625" customWidth="1"/>
-    <col min="93" max="93" width="19.5703125" customWidth="1"/>
-    <col min="96" max="96" width="42.140625" customWidth="1"/>
-    <col min="97" max="101" width="17.85546875" customWidth="1"/>
-    <col min="102" max="116" width="26.42578125" customWidth="1"/>
+    <col min="79" max="79" width="29.5703125" customWidth="1"/>
+    <col min="80" max="80" width="47.85546875" customWidth="1"/>
+    <col min="81" max="81" width="18" customWidth="1"/>
+    <col min="82" max="82" width="14.85546875" customWidth="1"/>
+    <col min="83" max="83" width="13.140625" customWidth="1"/>
+    <col min="84" max="84" width="18.140625" customWidth="1"/>
+    <col min="85" max="85" width="15.42578125" customWidth="1"/>
+    <col min="86" max="86" width="15.85546875" customWidth="1"/>
+    <col min="89" max="89" width="17.7109375" customWidth="1"/>
+    <col min="90" max="90" width="22.140625" customWidth="1"/>
+    <col min="91" max="91" width="19.5703125" customWidth="1"/>
+    <col min="94" max="94" width="42.140625" customWidth="1"/>
+    <col min="95" max="99" width="17.85546875" customWidth="1"/>
+    <col min="100" max="114" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:116" ht="30" customHeight="1">
+    <row r="1" spans="1:114" ht="30" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AP1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AQ1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AR1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AS1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AW1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AX1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AY1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AZ1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="BA1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AN1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP1" s="3" t="s">
+      <c r="BD1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="BE1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="BH1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AR1" s="13" t="s">
+      <c r="BI1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="BJ1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BK1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AS1" s="13" t="s">
+      <c r="BL1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AT1" s="13" t="s">
+      <c r="BM1" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="BN1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="AU1" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AV1" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW1" s="13" t="s">
+      <c r="BP1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="AX1" s="13" t="s">
+      <c r="BQ1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="AY1" s="13" t="s">
+      <c r="BR1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="AZ1" s="13" t="s">
+      <c r="BS1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="BA1" s="13" t="s">
+      <c r="BT1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU1" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="BV1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="BB1" s="13" t="s">
+      <c r="BW1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="BC1" s="13" t="s">
+      <c r="BX1" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="BD1" s="13" t="s">
+      <c r="BY1" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="BE1" s="13" t="s">
+      <c r="BZ1" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="BF1" s="13" t="s">
+      <c r="CA1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="BG1" s="13" t="s">
+      <c r="CB1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="BH1" s="13" t="s">
+      <c r="CC1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="BI1" s="13" t="s">
+      <c r="CD1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="BJ1" s="13" t="s">
+      <c r="CE1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="BK1" s="13" t="s">
+      <c r="CF1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="BL1" s="13" t="s">
+      <c r="CG1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="BM1" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="BN1" s="13" t="s">
+      <c r="CH1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="BO1" s="13" t="s">
+      <c r="CI1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="BP1" s="13" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="BQ1" s="13" t="s">
+      <c r="CK1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="BR1" s="13" t="s">
+      <c r="CL1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="BS1" s="13" t="s">
+      <c r="CM1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="BT1" s="13" t="s">
+      <c r="CN1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="BU1" s="13" t="s">
+      <c r="CO1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="BV1" s="13" t="s">
+      <c r="CP1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="BW1" s="13" t="s">
+      <c r="CQ1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BX1" s="13" t="s">
+      <c r="CR1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="CS1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="CT1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="CU1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="CV1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="CW1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="CX1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="CY1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="CZ1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="DA1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="DB1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="DC1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="DD1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DE1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="DF1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="DG1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="DH1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="DI1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="DJ1" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:114">
+      <c r="A2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BY1" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="BZ1" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="CA1" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="CB1" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="CC1" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="CD1" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="CE1" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="CF1" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="CG1" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="CH1" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="CI1" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="CJ1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="CK1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="CL1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="CM1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="CN1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="CO1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="CP1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="CQ1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="CR1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="CS1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="CT1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="CU1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="CV1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="CW1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="CX1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="CY1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="CZ1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="DA1" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="DB1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="DC1" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="DD1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="DE1" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="DF1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="DG1" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="DH1" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="DI1" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="DJ1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="DK1" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="DL1" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:116">
-      <c r="A2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" s="4">
-        <v>12345</v>
-      </c>
-      <c r="V2" s="4">
-        <v>1000</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="E2" s="6">
+        <v>43332</v>
+      </c>
+      <c r="F2" s="6">
+        <v>43342</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
@@ -1456,11 +1327,11 @@
       <c r="BY2" s="4"/>
       <c r="BZ2" s="4"/>
       <c r="CA2" s="4"/>
-      <c r="CB2" s="4"/>
+      <c r="CB2" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="CC2" s="4"/>
-      <c r="CD2" s="4" t="s">
-        <v>109</v>
-      </c>
+      <c r="CD2" s="4"/>
       <c r="CE2" s="4"/>
       <c r="CF2" s="4"/>
       <c r="CG2" s="4"/>
@@ -1493,89 +1364,53 @@
       <c r="DH2" s="4"/>
       <c r="DI2" s="4"/>
       <c r="DJ2" s="4"/>
-      <c r="DK2" s="4"/>
-      <c r="DL2" s="4"/>
     </row>
-    <row r="3" spans="1:116">
+    <row r="3" spans="1:114">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
-      <c r="W3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="AD3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
       <c r="AJ3" s="4"/>
@@ -1622,11 +1457,11 @@
       <c r="BY3" s="4"/>
       <c r="BZ3" s="4"/>
       <c r="CA3" s="4"/>
-      <c r="CB3" s="4"/>
+      <c r="CB3" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="CC3" s="4"/>
-      <c r="CD3" s="4" t="s">
-        <v>109</v>
-      </c>
+      <c r="CD3" s="4"/>
       <c r="CE3" s="4"/>
       <c r="CF3" s="4"/>
       <c r="CG3" s="4"/>
@@ -1659,77 +1494,47 @@
       <c r="DH3" s="4"/>
       <c r="DI3" s="4"/>
       <c r="DJ3" s="4"/>
-      <c r="DK3" s="4"/>
-      <c r="DL3" s="4"/>
     </row>
-    <row r="4" spans="1:116">
+    <row r="4" spans="1:114">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>36</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
       <c r="V4" s="10"/>
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
-      <c r="Y4" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
       <c r="AA4" s="10"/>
       <c r="AB4" s="10"/>
       <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
@@ -1778,11 +1583,11 @@
       <c r="BY4" s="4"/>
       <c r="BZ4" s="4"/>
       <c r="CA4" s="4"/>
-      <c r="CB4" s="4"/>
+      <c r="CB4" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="CC4" s="4"/>
-      <c r="CD4" s="4" t="s">
-        <v>109</v>
-      </c>
+      <c r="CD4" s="4"/>
       <c r="CE4" s="4"/>
       <c r="CF4" s="4"/>
       <c r="CG4" s="4"/>
@@ -1815,19 +1620,10 @@
       <c r="DH4" s="4"/>
       <c r="DI4" s="4"/>
       <c r="DJ4" s="4"/>
-      <c r="DK4" s="4"/>
-      <c r="DL4" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" display="tooolsqa@gmail.com"/>
-    <hyperlink ref="O3" r:id="rId2" display="tooolsqa@gmail.com"/>
-    <hyperlink ref="O4" r:id="rId3" display="tooolsqa@gmail.com"/>
-    <hyperlink ref="E2" r:id="rId4"/>
-    <hyperlink ref="F2" r:id="rId5"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
